--- a/CoreRulebook/Data/Archetypes/Artificier.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AAB76D-0570-4F72-904C-4D2472E3D4A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8A411-CC4A-4097-B5FE-D2E3B35BE2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2430" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>LVL</t>
   </si>
@@ -48,24 +48,15 @@
     <t>Alchemist</t>
   </si>
   <si>
-    <t>Artisan{\apos}s Fingers</t>
-  </si>
-  <si>
     <t>Alteration Runes</t>
   </si>
   <si>
-    <t>Attuned Nose\comma{} Herbal Knowledge</t>
-  </si>
-  <si>
     <t>Appraising Eyes</t>
   </si>
   <si>
     <t>Renew Binding</t>
   </si>
   <si>
-    <t>Green Thumb</t>
-  </si>
-  <si>
     <t>Reliable Supplier</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Multiple Bindings</t>
   </si>
   <si>
-    <t>Soul Infusion</t>
-  </si>
-  <si>
     <t>Purity Filters</t>
   </si>
   <si>
@@ -93,10 +81,49 @@
     <t>Imbue Sentience</t>
   </si>
   <si>
-    <t>Demonic Binding</t>
-  </si>
-  <si>
     <t>Proven Recipes</t>
+  </si>
+  <si>
+    <t>Tool Proficiency</t>
+  </si>
+  <si>
+    <t>Artisan{\apos}s Intuition</t>
+  </si>
+  <si>
+    <t>Artisan{\apos}s Intuition II</t>
+  </si>
+  <si>
+    <t>Attuned Nose\comma{} Natural Knowledge</t>
+  </si>
+  <si>
+    <t>Appraising Eyes II</t>
+  </si>
+  <si>
+    <t>Soul Attunement</t>
+  </si>
+  <si>
+    <t>Production Line</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Enchanting Specialty</t>
+  </si>
+  <si>
+    <t>Favoured Effect</t>
+  </si>
+  <si>
+    <t>Favoured Effect II</t>
+  </si>
+  <si>
+    <t>Construct Mastery</t>
+  </si>
+  <si>
+    <t>Alchemic Construct</t>
+  </si>
+  <si>
+    <t>Careful Mixing</t>
   </si>
 </sst>
 </file>
@@ -450,14 +477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.5703125"/>
-    <col min="3" max="4" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
@@ -488,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -499,6 +527,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -508,11 +539,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,11 +557,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -551,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -590,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -604,6 +635,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -613,8 +647,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,8 +659,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,6 +674,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -646,6 +686,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -655,11 +701,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -667,11 +716,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -679,8 +725,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -688,8 +737,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -698,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -706,8 +758,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>20</v>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Artificier.xlsx
+++ b/CoreRulebook/Data/Archetypes/Artificier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8A411-CC4A-4097-B5FE-D2E3B35BE2A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111D7BF7-1BC6-4526-BD13-EEB937D8CC69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2430" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>LVL</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Careful Mixing</t>
+  </si>
+  <si>
+    <t>Purity Filters II</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -728,6 +731,9 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
